--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,120 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>e20200319</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HEANG CHANLEANG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>e20200319@itc.edu.kh</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GIC</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-01-29 19:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>e20200319</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HEANG CHANLEANG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>e20200319@itc.edu.kh</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GIC</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-01-29 19:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>e20200319</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HEANG CHANLEANG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>e20200319@itc.edu.kh</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GIC</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-01-29 19:53:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>e20200319</t>
+          <t>e20201141</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HEANG CHANLEANG</t>
+          <t>DY RONGRATH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>e20200319@itc.edu.kh</t>
+          <t>e20201141@itc.edu.kh</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -509,24 +509,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-01-28 22:43:53</t>
+          <t>2025-01-29 22:00:56</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>e20200319</t>
+          <t>e20200671</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HEANG CHANLEANG</t>
+          <t>CHAB SREYLEN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>e20200319@itc.edu.kh</t>
+          <t>e20200671@itc.edu.kh</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-01-28 22:46:07</t>
+          <t>2025-01-29 22:01:19</t>
         </is>
       </c>
     </row>
@@ -585,24 +585,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-01-28 22:46:25</t>
+          <t>2025-01-29 22:01:58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>e20200319</t>
+          <t>e20201056</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HEANG CHANLEANG</t>
+          <t>HAI TONGMENG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>e20200319@itc.edu.kh</t>
+          <t>e20201056@itc.edu.kh</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -623,159 +623,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-01-28 22:49:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>e20200319</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HEANG CHANLEANG</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>e20200319@itc.edu.kh</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GIC</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-01-28 22:50:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>e20200319</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HEANG CHANLEANG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>e20200319@itc.edu.kh</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GIC</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-01-29 19:00:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>e20200319</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HEANG CHANLEANG</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>e20200319@itc.edu.kh</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GIC</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-01-29 19:52:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>e20200319</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HEANG CHANLEANG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>e20200319@itc.edu.kh</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GIC</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-01-29 19:53:00</t>
+          <t>2025-01-29 22:02:10</t>
         </is>
       </c>
     </row>
